--- a/Research/observations/data/TNCDySed calculations.xlsx
+++ b/Research/observations/data/TNCDySed calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Research\observations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JO_Research\Research\observations\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EBD020-87DA-4260-94AE-0D4908196554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FA883-CBBB-41CD-86DF-50EA0600F0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Glass code</t>
   </si>
@@ -2096,6 +2088,15 @@
   </si>
   <si>
     <t>these are values of u2, u4, u6</t>
+  </si>
+  <si>
+    <t>concentration(rho)</t>
+  </si>
+  <si>
+    <t>S matrix</t>
+  </si>
+  <si>
+    <t>speed of light</t>
   </si>
 </sst>
 </file>
@@ -2483,28 +2484,30 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="1.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2523,6 +2526,12 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
@@ -2581,6 +2590,9 @@
       </c>
       <c r="R3" t="s">
         <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.8" x14ac:dyDescent="0.35">
